--- a/integration-test/input/de/kelheim/kelheim-v3.0/25pct/kelheim-v3.0-25pct.rssched_request_config_vehicle_type_filter.xlsx
+++ b/integration-test/input/de/kelheim/kelheim-v3.0/25pct/kelheim-v3.0-25pct.rssched_request_config_vehicle_type_filter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devsbb\code\github\rssched\rssched-matsim-client\integration-test\input\de\kelheim\kelheim-v3.0\25pct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BFC70C-BB3A-4708-B0FB-FC8D8ED59152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA99549-834B-45A2-B097-D8B1170CB431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{DC1F9231-C487-4AC9-83CB-859BC56E9E26}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DC1F9231-C487-4AC9-83CB-859BC56E9E26}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_info" sheetId="4" r:id="rId1"/>
@@ -337,9 +337,6 @@
     <t>The factor that is applied to travel the beeline distance at speed limit, if no path in the network is found for the dead head trip between two locations.</t>
   </si>
   <si>
-    <t>it_config</t>
-  </si>
-  <si>
     <t>EPSG:25832</t>
   </si>
   <si>
@@ -356,6 +353,9 @@
   </si>
   <si>
     <t>Note: This sheet is optional; if list is empty, no filter is applied.</t>
+  </si>
+  <si>
+    <t>it_config_vehicle_type_filter</t>
   </si>
 </sst>
 </file>
@@ -757,21 +757,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59229E94-6018-4A97-A06C-07B4D53DFD39}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.15234375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.84375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.4609375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="129.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.81640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="129.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -788,7 +788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -796,14 +796,14 @@
         <v>72</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -817,7 +817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -831,7 +831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -845,21 +845,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -876,7 +876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -908,7 +908,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -925,7 +925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -942,7 +942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -960,7 +960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -977,7 +977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -991,7 +991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1197,18 +1197,18 @@
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.4609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -1271,24 +1271,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E31C2-14D1-4EB0-9548-0D6A0EA80330}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1305,52 +1305,52 @@
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -1369,14 +1369,14 @@
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="7.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -1536,14 +1536,14 @@
       <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>87</v>
       </c>

--- a/integration-test/input/de/kelheim/kelheim-v3.0/25pct/kelheim-v3.0-25pct.rssched_request_config_vehicle_type_filter.xlsx
+++ b/integration-test/input/de/kelheim/kelheim-v3.0/25pct/kelheim-v3.0-25pct.rssched_request_config_vehicle_type_filter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devsbb\code\github\rssched\rssched-matsim-client\integration-test\input\de\kelheim\kelheim-v3.0\25pct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA99549-834B-45A2-B097-D8B1170CB431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972DA145-4952-43C2-8147-377CB558F677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DC1F9231-C487-4AC9-83CB-859BC56E9E26}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DC1F9231-C487-4AC9-83CB-859BC56E9E26}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_info" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="maintenance_slots" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenario_info!$A$1:$E$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenario_info!$A$1:$E$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
   <si>
     <t>location_id</t>
   </si>
@@ -335,15 +335,6 @@
   </si>
   <si>
     <t>The factor that is applied to travel the beeline distance at speed limit, if no path in the network is found for the dead head trip between two locations.</t>
-  </si>
-  <si>
-    <t>EPSG:25832</t>
-  </si>
-  <si>
-    <t>networkCrs</t>
-  </si>
-  <si>
-    <t>The coordinate reference system of the network</t>
   </si>
   <si>
     <t>transit_line_id</t>
@@ -755,11 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59229E94-6018-4A97-A06C-07B4D53DFD39}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -796,7 +787,7 @@
         <v>72</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3" t="s">
@@ -850,13 +841,16 @@
         <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>97</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -864,16 +858,17 @@
         <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7">
-        <v>0.25</v>
+        <f>90 / 3.6</f>
+        <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -881,17 +876,13 @@
         <v>33</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C8" s="7">
-        <f>90 / 3.6</f>
-        <v>25</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -899,13 +890,16 @@
         <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="7">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -913,16 +907,16 @@
         <v>33</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7" t="b">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7">
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -930,34 +924,34 @@
         <v>33</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <f>15 * 60</f>
+        <v>900</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
-        <f>15 * 60</f>
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -965,16 +959,13 @@
         <v>34</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7">
-        <v>999</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -982,30 +973,33 @@
         <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="7" t="b">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1013,16 +1007,16 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1030,16 +1024,17 @@
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7">
-        <v>60</v>
+        <f>2 * 60</f>
+        <v>120</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1047,53 +1042,52 @@
         <v>44</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C18" s="7">
-        <f>2 * 60</f>
-        <v>120</v>
+        <f>3 * 60</f>
+        <v>180</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="7">
-        <f>3 * 60</f>
-        <v>180</v>
+        <f>15000 * 1000</f>
+        <v>15000000</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C20" s="7">
-        <f>15000 * 1000</f>
-        <v>15000000</v>
+        <v>100</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1101,16 +1095,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1118,16 +1112,16 @@
         <v>10</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1135,16 +1129,16 @@
         <v>10</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1152,37 +1146,20 @@
         <v>10</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C24" s="7">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7">
-        <v>200</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="3" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E25" xr:uid="{59229E94-6018-4A97-A06C-07B4D53DFD39}"/>
+  <autoFilter ref="A1:E24" xr:uid="{59229E94-6018-4A97-A06C-07B4D53DFD39}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1282,13 +1259,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/integration-test/input/de/kelheim/kelheim-v3.0/25pct/kelheim-v3.0-25pct.rssched_request_config_vehicle_type_filter.xlsx
+++ b/integration-test/input/de/kelheim/kelheim-v3.0/25pct/kelheim-v3.0-25pct.rssched_request_config_vehicle_type_filter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devsbb\code\github\rssched\rssched-matsim-client\integration-test\input\de\kelheim\kelheim-v3.0\25pct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972DA145-4952-43C2-8147-377CB558F677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AFA312-0D4B-402D-BF61-62F1A46F15B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DC1F9231-C487-4AC9-83CB-859BC56E9E26}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DC1F9231-C487-4AC9-83CB-859BC56E9E26}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_info" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="maintenance_slots" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenario_info!$A$1:$E$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenario_info!$A$1:$E$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
   <si>
     <t>location_id</t>
   </si>
@@ -347,6 +347,21 @@
   </si>
   <si>
     <t>it_config_vehicle_type_filter</t>
+  </si>
+  <si>
+    <t>deadHeadTripAllowedModes</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>Deadhead trips are routed using network links that match one of these allowed modes (list sperated with colon: pt,rail)</t>
+  </si>
+  <si>
+    <t>capacityFactor</t>
+  </si>
+  <si>
+    <t>Adjust the passenger capacity of units to reflect deviations in passenger demand.</t>
   </si>
 </sst>
 </file>
@@ -746,11 +761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59229E94-6018-4A97-A06C-07B4D53DFD39}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -858,17 +873,13 @@
         <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7">
-        <f>90 / 3.6</f>
-        <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>101</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -876,13 +887,17 @@
         <v>33</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <f>90 / 3.6</f>
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -890,16 +905,13 @@
         <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>95</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -907,16 +919,16 @@
         <v>33</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -924,48 +936,48 @@
         <v>33</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C13" s="7">
         <f>15 * 60</f>
         <v>900</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="7">
-        <v>999</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -973,50 +985,47 @@
         <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7" t="b">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="C14" s="7">
+        <v>999</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="7">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="C16" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1024,17 +1033,16 @@
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7">
-        <f>2 * 60</f>
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1042,69 +1050,70 @@
         <v>44</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="7">
+        <v>60</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="7">
+        <f>2 * 60</f>
+        <v>120</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C20" s="7">
         <f>3 * 60</f>
         <v>180</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C21" s="7">
         <f>15000 * 1000</f>
         <v>15000000</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="7">
-        <v>100</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="7">
-        <v>25</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1112,16 +1121,16 @@
         <v>10</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1129,16 +1138,16 @@
         <v>10</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="7">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1146,20 +1155,54 @@
         <v>10</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C24" s="7">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="7">
+        <v>75</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7">
+        <v>200</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E24" xr:uid="{59229E94-6018-4A97-A06C-07B4D53DFD39}"/>
+  <autoFilter ref="A1:E26" xr:uid="{59229E94-6018-4A97-A06C-07B4D53DFD39}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
